--- a/results/MOFS-BACO Results - with ops.xlsx
+++ b/results/MOFS-BACO Results - with ops.xlsx
@@ -12,7 +12,7 @@
     <sheet name="ionosphere" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="movement_libras" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="SCADI" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="CNAE-9" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="parkinsons" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -280,7 +280,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -654,8 +654,7 @@
         <v>95.48</v>
       </c>
       <c r="C33" s="4" t="n">
-        <f aca="false">INDEX(C2:C31,MATCH(B33,B2:B31))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -677,7 +676,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1051,7 +1050,6 @@
         <v>94.29</v>
       </c>
       <c r="C33" s="4" t="n">
-        <f aca="false">INDEX(C2:C31,MATCH(B33,B2:B31))</f>
         <v>7</v>
       </c>
     </row>
@@ -1868,14 +1866,14 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+      <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="10.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="9.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="9.47"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="5" width="11.52"/>
   </cols>
   <sheetData>
@@ -1895,10 +1893,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>83.23</v>
+        <v>78.33</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>344</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1906,10 +1904,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>87.3</v>
+        <v>76.25</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>355</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1917,10 +1915,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>85.08</v>
+        <v>81.25</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>363</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1928,10 +1926,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>86.56</v>
+        <v>79.17</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>358</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1939,10 +1937,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>83.78</v>
+        <v>79.17</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>332</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1950,10 +1948,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>85.73</v>
+        <v>75.83</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>336</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1961,10 +1959,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>84.62</v>
+        <v>82.08</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>344</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1972,10 +1970,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>85.73</v>
+        <v>81.67</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>370</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1983,10 +1981,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>84.71</v>
+        <v>80</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>367</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1994,10 +1992,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>84.71</v>
+        <v>80.42</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>338</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2005,10 +2003,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>84.71</v>
+        <v>80.83</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>341</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2016,10 +2014,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>84.89</v>
+        <v>77.5</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>373</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2027,10 +2025,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>85.26</v>
+        <v>77.5</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>341</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2038,10 +2036,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>83.87</v>
+        <v>76.67</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>349</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2049,10 +2047,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>83.69</v>
+        <v>77.92</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>366</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2060,10 +2058,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>83.78</v>
+        <v>78.75</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>344</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2071,10 +2069,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>83.6</v>
+        <v>77.5</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>354</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2082,10 +2080,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>84.34</v>
+        <v>77.92</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>353</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2093,10 +2091,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>84.89</v>
+        <v>77.5</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>367</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2104,10 +2102,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>85.36</v>
+        <v>80.42</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>330</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2115,10 +2113,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>84.34</v>
+        <v>77.92</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>348</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2126,10 +2124,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>83.97</v>
+        <v>78.33</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>370</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2137,10 +2135,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>84.24</v>
+        <v>77.92</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>346</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2148,10 +2146,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>86.28</v>
+        <v>78.33</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>352</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2159,10 +2157,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>84.99</v>
+        <v>77.08</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>353</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2170,10 +2168,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>86.38</v>
+        <v>78.75</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>364</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2181,10 +2179,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>84.34</v>
+        <v>80</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>337</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2192,10 +2190,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>83.87</v>
+        <v>80.42</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>326</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2203,10 +2201,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>88.04</v>
+        <v>77.92</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>358</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2214,10 +2212,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>84.99</v>
+        <v>79.58</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>370</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2226,11 +2224,11 @@
       </c>
       <c r="B32" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(B2:B31),2)</f>
-        <v>84.91</v>
+        <v>78.76</v>
       </c>
       <c r="C32" s="6" t="n">
         <f aca="false">ROUND(AVERAGE(C2:C31),0)</f>
-        <v>352</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2239,11 +2237,10 @@
       </c>
       <c r="B33" s="7" t="n">
         <f aca="false">MAX(B2:B31)</f>
-        <v>88.04</v>
+        <v>82.08</v>
       </c>
       <c r="C33" s="7" t="n">
-        <f aca="false">INDEX(C2:C31,MATCH(B33,B2:B31))</f>
-        <v>358</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
